--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.75670566666667</v>
+        <v>2.469524</v>
       </c>
       <c r="H2">
-        <v>59.270117</v>
+        <v>7.408571999999999</v>
       </c>
       <c r="I2">
-        <v>0.05135788836328295</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="J2">
-        <v>0.05135788836328296</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>2222.893969302288</v>
+        <v>150.7437118387187</v>
       </c>
       <c r="R2">
-        <v>20006.04572372059</v>
+        <v>1356.693406548468</v>
       </c>
       <c r="S2">
-        <v>0.01682131582465066</v>
+        <v>0.001384646670941439</v>
       </c>
       <c r="T2">
-        <v>0.01682131582465066</v>
+        <v>0.001384646670941439</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.75670566666667</v>
+        <v>2.469524</v>
       </c>
       <c r="H3">
-        <v>59.270117</v>
+        <v>7.408571999999999</v>
       </c>
       <c r="I3">
-        <v>0.05135788836328295</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="J3">
-        <v>0.05135788836328296</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>2100.42361287084</v>
+        <v>262.546125334184</v>
       </c>
       <c r="R3">
-        <v>18903.81251583757</v>
+        <v>2362.915128007656</v>
       </c>
       <c r="S3">
-        <v>0.01589454532945806</v>
+        <v>0.002411600550220613</v>
       </c>
       <c r="T3">
-        <v>0.01589454532945807</v>
+        <v>0.002411600550220614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.75670566666667</v>
+        <v>2.469524</v>
       </c>
       <c r="H4">
-        <v>59.270117</v>
+        <v>7.408571999999999</v>
       </c>
       <c r="I4">
-        <v>0.05135788836328295</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="J4">
-        <v>0.05135788836328296</v>
+        <v>0.006775482240913427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>2463.496333510114</v>
+        <v>324.3433539704906</v>
       </c>
       <c r="R4">
-        <v>22171.46700159102</v>
+        <v>2919.090185734416</v>
       </c>
       <c r="S4">
-        <v>0.01864202720917423</v>
+        <v>0.002979235019751374</v>
       </c>
       <c r="T4">
-        <v>0.01864202720917423</v>
+        <v>0.002979235019751375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>329.6209206666667</v>
       </c>
       <c r="H5">
-        <v>988.8627620000001</v>
+        <v>988.862762</v>
       </c>
       <c r="I5">
-        <v>0.8568551220744788</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="J5">
-        <v>0.856855122074479</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>37086.76785836957</v>
+        <v>20120.59047856557</v>
       </c>
       <c r="R5">
-        <v>333780.9107253261</v>
+        <v>181085.3143070901</v>
       </c>
       <c r="S5">
-        <v>0.2806468701055265</v>
+        <v>0.1848163899090481</v>
       </c>
       <c r="T5">
-        <v>0.2806468701055266</v>
+        <v>0.1848163899090481</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>329.6209206666667</v>
       </c>
       <c r="H6">
-        <v>988.8627620000001</v>
+        <v>988.862762</v>
       </c>
       <c r="I6">
-        <v>0.8568551220744788</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="J6">
-        <v>0.856855122074479</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>35043.47216310503</v>
@@ -818,10 +818,10 @@
         <v>315391.2494679453</v>
       </c>
       <c r="S6">
-        <v>0.2651846291314408</v>
+        <v>0.321889559949188</v>
       </c>
       <c r="T6">
-        <v>0.2651846291314409</v>
+        <v>0.3218895599491881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>329.6209206666667</v>
       </c>
       <c r="H7">
-        <v>988.8627620000001</v>
+        <v>988.862762</v>
       </c>
       <c r="I7">
-        <v>0.8568551220744788</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="J7">
-        <v>0.856855122074479</v>
+        <v>0.9043607975506752</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>41100.97823042401</v>
+        <v>43291.88740334885</v>
       </c>
       <c r="R7">
-        <v>369908.8040738162</v>
+        <v>389626.9866301397</v>
       </c>
       <c r="S7">
-        <v>0.3110236228375115</v>
+        <v>0.397654847692439</v>
       </c>
       <c r="T7">
-        <v>0.3110236228375116</v>
+        <v>0.3976548476924391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.30925033333333</v>
+        <v>32.38899933333333</v>
       </c>
       <c r="H8">
-        <v>105.927751</v>
+        <v>97.16699799999999</v>
       </c>
       <c r="I8">
-        <v>0.09178698956223814</v>
+        <v>0.08886372020841134</v>
       </c>
       <c r="J8">
-        <v>0.09178698956223817</v>
+        <v>0.08886372020841135</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>3972.763523980464</v>
+        <v>1977.076546835929</v>
       </c>
       <c r="R8">
-        <v>35754.87171582417</v>
+        <v>17793.68892152336</v>
       </c>
       <c r="S8">
-        <v>0.03006311180667915</v>
+        <v>0.01816030947746387</v>
       </c>
       <c r="T8">
-        <v>0.03006311180667916</v>
+        <v>0.01816030947746387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.30925033333333</v>
+        <v>32.38899933333333</v>
       </c>
       <c r="H9">
-        <v>105.927751</v>
+        <v>97.16699799999999</v>
       </c>
       <c r="I9">
-        <v>0.09178698956223814</v>
+        <v>0.08886372020841134</v>
       </c>
       <c r="J9">
-        <v>0.09178698956223817</v>
+        <v>0.08886372020841135</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>3753.884094048655</v>
+        <v>3443.419168397689</v>
       </c>
       <c r="R9">
-        <v>33784.9568464379</v>
+        <v>30990.7725155792</v>
       </c>
       <c r="S9">
-        <v>0.02840678448326745</v>
+        <v>0.03162930532902768</v>
       </c>
       <c r="T9">
-        <v>0.02840678448326747</v>
+        <v>0.03162930532902768</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.30925033333333</v>
+        <v>32.38899933333333</v>
       </c>
       <c r="H10">
-        <v>105.927751</v>
+        <v>97.16699799999999</v>
       </c>
       <c r="I10">
-        <v>0.09178698956223814</v>
+        <v>0.08886372020841134</v>
       </c>
       <c r="J10">
-        <v>0.09178698956223817</v>
+        <v>0.08886372020841135</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>4402.768872642385</v>
+        <v>4253.919652338393</v>
       </c>
       <c r="R10">
-        <v>39624.91985378147</v>
+        <v>38285.27687104554</v>
       </c>
       <c r="S10">
-        <v>0.03331709327229154</v>
+        <v>0.03907410540191979</v>
       </c>
       <c r="T10">
-        <v>0.03331709327229155</v>
+        <v>0.0390741054019198</v>
       </c>
     </row>
   </sheetData>
